--- a/提出資料.xlsx
+++ b/提出資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19980\source\repos\RoadsideStationApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DC1AB0-3803-4AB0-9AC0-F7092900F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C350BE6-0074-428D-B6A0-88C8979AD4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8C2AE197-A489-48F8-8687-0489D29BC3F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>道の駅スタンプアプリ</t>
     <rPh sb="0" eb="1">
@@ -600,28 +600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・現在リリースされているアプリで有用な機能を残しつつ、ほしい機能をのせたアプリを作りたい。</t>
-    <rPh sb="1" eb="3">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ユウヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>道の駅訪問率</t>
     <rPh sb="0" eb="1">
       <t>ミチ</t>
@@ -749,37 +727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・.net Mauiの本を購入したが表面的にことは記載しているが、ちょっと応用的なことをしたくても記載がなく、正直お金の無駄だった</t>
-    <rPh sb="11" eb="12">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ヒョウメンテキ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>オウヨウテキ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ショウジキ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ムダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Windowsでiosのアプリをデバッグするのは公式なやり方はなく、環境構築に手間取った(本当はMacを使わなければならない)</t>
     <rPh sb="25" eb="27">
       <t>コウシキ</t>
@@ -812,43 +759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・データのメンテナンス性を考えてデータベースファイルを外から編集可能な位置に置くことにしたが、ネットに良い情報が少なく実現までにかなり時間がかかった</t>
-    <rPh sb="11" eb="12">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>ヘンシュウカノウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・通常リソースは外から見えない位置に配置されるが、データベースファイルは外から編集可能な場所に配置し、データのメンテナンス性を考えた</t>
     <rPh sb="1" eb="3">
       <t>ツウジョウ</t>
@@ -958,7 +868,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・WPFのようなデザイン画面がなく、いちいちデバイスにインストールしてレイアウトを確認する必要があり、めんどくさかった</t>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・OSアップデート時にアプリの更新はしたくないので、なるべく新しい機能(メソッドやクラス)を使った</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・WPFのようなデザイン画面がなく、いちいちデバイスにインストールしてレイアウトを確認する必要があり、デバッグに想定より時間がかかった</t>
     <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
@@ -968,10 +901,161 @@
     <rPh sb="45" eb="47">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
+    <rPh sb="56" eb="58">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・iosでデバッグするにはApple Developer Programに加入する必要があるが、12,980円/年かかるのでOSアップデート時のアプリ更新はできない(もう払いたくない)</t>
+    <rPh sb="37" eb="39">
+      <t>カニュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリの更新をなるべく行わないために、新しい機能(メソッドやクラス)を使うことを心掛けたが、その分情報が少なく自分で試行錯誤を行うことが多かった</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ココロガ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>シコウサクゴ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・データのメンテナンス性を考えてデータベースファイルを外から編集可能な位置に置くことにしたが、その方法について情報が少なく実現までにかなり時間がかかった</t>
+    <rPh sb="11" eb="12">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ヘンシュウカノウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・.net Mauiの本を購入したが表面的にことは記載しているが、ちょっと応用的なことをしたくても記載が無かった</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヒョウメンテキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>オウヨウテキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・現在リリースされているアプリで有用な機能を残しつつ、欲しい機能をのせたアプリを作りたい。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1269,13 +1353,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609526</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>126150</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>75364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1319,13 +1403,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>359476</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>64200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>561900</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>34864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1369,13 +1453,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>671401</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>61800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>188025</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>32464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1419,13 +1503,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>164176</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>202275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>366600</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>172939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1469,13 +1553,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>359401</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>187950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>561825</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>158614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1519,13 +1603,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>383176</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>211725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>585600</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>182389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1569,13 +1653,13 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>142651</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>180750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>345075</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>151414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1858,13 +1942,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1929,13 +2013,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1992,13 +2076,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>561826</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>199875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>78450</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>170539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2042,13 +2126,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>80776</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>204600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>283200</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>175264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2092,13 +2176,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2155,13 +2239,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2218,13 +2302,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>278219</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2268,13 +2352,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>478244</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2318,13 +2402,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>87718</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2368,13 +2452,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2431,13 +2515,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2494,13 +2578,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2628,14 +2712,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2650,8 +2734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4895850" y="32946975"/>
-          <a:ext cx="8496300" cy="952500"/>
+          <a:off x="4895850" y="33423224"/>
+          <a:ext cx="8496300" cy="1219201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,13 +2783,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>220214</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>181553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2743,13 +2827,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2806,13 +2890,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2899,13 +2983,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2968,7 +3052,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>をカスタムする必要があるが情報がかなり少ない。</a:t>
+            <a:t>をカスタムする必要があるが、情報がかなり少ない。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
         </a:p>
@@ -3031,13 +3115,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3164,13 +3248,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3219,13 +3303,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3274,13 +3358,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3646,7 +3730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778F7FDE-4B73-4A8C-B14F-3BA14B558B17}">
-  <dimension ref="B2:BB157"/>
+  <dimension ref="B2:BB163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3672,7 +3756,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
@@ -3727,7 +3811,7 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
@@ -3800,134 +3884,149 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B111" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="BB129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B138" t="s">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="BB131" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="B142" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B139" t="s">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.4">
+      <c r="B143" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.4">
-      <c r="B140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B145" s="1" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B148" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B150" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B146" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B147" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B148" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B150" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B151" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B152" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B154" t="s">
-        <v>47</v>
+      <c r="B154" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B159" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B161" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B162" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B163" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
